--- a/seed-db.xlsx
+++ b/seed-db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusup/Projects/node/react/sim-cpkp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C16DE1-BC45-2A4F-80D9-EFCCE5C8736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE020C7-408E-6547-B4D5-A108A7B54016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="2000" windowWidth="22320" windowHeight="14940" xr2:uid="{3A517DB6-CB21-604E-8430-1A3A34014104}"/>
   </bookViews>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4591,6 +4591,7 @@
     <hyperlink ref="C115" r:id="rId8" xr:uid="{C20BA16C-E92F-5A40-A733-3E007E787B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
